--- a/spreadsheet/predictions.xlsx
+++ b/spreadsheet/predictions.xlsx
@@ -14,18 +14,66 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+  <si>
+    <t>Date</t>
+  </si>
   <si>
     <t>Actual</t>
   </si>
   <si>
-    <t>LinearRegression</t>
+    <t>Linear Regression</t>
+  </si>
+  <si>
+    <t>PolynomialRegression</t>
+  </si>
+  <si>
+    <t>ANN_Model</t>
+  </si>
+  <si>
+    <t>Random Forest</t>
+  </si>
+  <si>
+    <t>Neural Network PyTorch</t>
+  </si>
+  <si>
+    <t>Gradient Boosting</t>
+  </si>
+  <si>
+    <t>Lasso Regression</t>
+  </si>
+  <si>
+    <t>Ridge Regression</t>
+  </si>
+  <si>
+    <t>SVR</t>
+  </si>
+  <si>
+    <t>KNeighborsRegressor</t>
+  </si>
+  <si>
+    <t>Decision Tree Regressor</t>
+  </si>
+  <si>
+    <t>Bayesian Ridge</t>
+  </si>
+  <si>
+    <t>Extra Trees Regressor</t>
+  </si>
+  <si>
+    <t>Passive Aggressive Regressor</t>
+  </si>
+  <si>
+    <t>NARX</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -78,11 +126,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -377,148 +426,1441 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="2">
+        <v>43770</v>
+      </c>
       <c r="B2">
-        <v>48.51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>37.29</v>
+      </c>
+      <c r="C2">
+        <v>37.52170131165214</v>
+      </c>
+      <c r="D2">
+        <v>37.59413716297705</v>
+      </c>
+      <c r="E2">
+        <v>42.71177673339844</v>
+      </c>
+      <c r="F2">
+        <v>36.52380000000001</v>
+      </c>
+      <c r="G2">
+        <v>37.48</v>
+      </c>
+      <c r="H2">
+        <v>36.77720986555394</v>
+      </c>
+      <c r="I2">
+        <v>37.19201336137449</v>
+      </c>
+      <c r="J2">
+        <v>37.4563422152353</v>
+      </c>
+      <c r="K2">
+        <v>37.77660045467452</v>
+      </c>
+      <c r="L2">
+        <v>38.846</v>
+      </c>
+      <c r="M2">
+        <v>36.67833333333333</v>
+      </c>
+      <c r="N2">
+        <v>36.62243676953317</v>
+      </c>
+      <c r="O2">
+        <v>36.95959999999999</v>
+      </c>
+      <c r="P2">
+        <v>37.47351911792681</v>
+      </c>
+      <c r="Q2">
+        <v>39.64594268798828</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="2">
+        <v>42125</v>
+      </c>
       <c r="B3">
-        <v>52.94</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>28.75</v>
+      </c>
+      <c r="C3">
+        <v>28.97489066243458</v>
+      </c>
+      <c r="D3">
+        <v>29.05490747255292</v>
+      </c>
+      <c r="E3">
+        <v>32.77230834960938</v>
+      </c>
+      <c r="F3">
+        <v>29.4436</v>
+      </c>
+      <c r="G3">
+        <v>28.66</v>
+      </c>
+      <c r="H3">
+        <v>28.37737013174528</v>
+      </c>
+      <c r="I3">
+        <v>29.16505703555915</v>
+      </c>
+      <c r="J3">
+        <v>29.06403289019403</v>
+      </c>
+      <c r="K3">
+        <v>29.97742378781208</v>
+      </c>
+      <c r="L3">
+        <v>30.96</v>
+      </c>
+      <c r="M3">
+        <v>31.59611111111111</v>
+      </c>
+      <c r="N3">
+        <v>28.77636677647721</v>
+      </c>
+      <c r="O3">
+        <v>29.40410000000002</v>
+      </c>
+      <c r="P3">
+        <v>26.75917322998178</v>
+      </c>
+      <c r="Q3">
+        <v>26.56757736206055</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="2">
+        <v>45078</v>
+      </c>
       <c r="B4">
-        <v>55.93</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>39.43</v>
+      </c>
+      <c r="C4">
+        <v>39.0671645623119</v>
+      </c>
+      <c r="D4">
+        <v>38.04152860319611</v>
+      </c>
+      <c r="E4">
+        <v>48.01874542236328</v>
+      </c>
+      <c r="F4">
+        <v>43.42460660000002</v>
+      </c>
+      <c r="G4">
+        <v>42.87</v>
+      </c>
+      <c r="H4">
+        <v>41.24890659935819</v>
+      </c>
+      <c r="I4">
+        <v>39.43770080357395</v>
+      </c>
+      <c r="J4">
+        <v>39.68091872925051</v>
+      </c>
+      <c r="K4">
+        <v>40.97617051283565</v>
+      </c>
+      <c r="L4">
+        <v>40.974</v>
+      </c>
+      <c r="M4">
+        <v>53.61</v>
+      </c>
+      <c r="N4">
+        <v>38.98111160308965</v>
+      </c>
+      <c r="O4">
+        <v>40.70890000000003</v>
+      </c>
+      <c r="P4">
+        <v>39.16004383169753</v>
+      </c>
+      <c r="Q4">
+        <v>40.1589469909668</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="2">
+        <v>43586</v>
+      </c>
       <c r="B5">
-        <v>57.22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>31.47</v>
+      </c>
+      <c r="C5">
+        <v>30.92434927336477</v>
+      </c>
+      <c r="D5">
+        <v>30.69991934294217</v>
+      </c>
+      <c r="E5">
+        <v>37.69143676757812</v>
+      </c>
+      <c r="F5">
+        <v>32.44729999999998</v>
+      </c>
+      <c r="G5">
+        <v>33.25</v>
+      </c>
+      <c r="H5">
+        <v>32.30845400615159</v>
+      </c>
+      <c r="I5">
+        <v>31.66317239007477</v>
+      </c>
+      <c r="J5">
+        <v>30.89006382178589</v>
+      </c>
+      <c r="K5">
+        <v>32.97962058287496</v>
+      </c>
+      <c r="L5">
+        <v>32.844</v>
+      </c>
+      <c r="M5">
+        <v>31.59611111111111</v>
+      </c>
+      <c r="N5">
+        <v>31.63056671262211</v>
+      </c>
+      <c r="O5">
+        <v>32.05669999999998</v>
+      </c>
+      <c r="P5">
+        <v>31.78732986258599</v>
+      </c>
+      <c r="Q5">
+        <v>32.93512344360352</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="2">
+        <v>44409</v>
+      </c>
       <c r="B6">
-        <v>56.32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>39.23</v>
+      </c>
+      <c r="C6">
+        <v>39.48504784649201</v>
+      </c>
+      <c r="D6">
+        <v>38.34162558794983</v>
+      </c>
+      <c r="E6">
+        <v>44.45050811767578</v>
+      </c>
+      <c r="F6">
+        <v>37.77889999999999</v>
+      </c>
+      <c r="G6">
+        <v>38.37</v>
+      </c>
+      <c r="H6">
+        <v>38.42391106461277</v>
+      </c>
+      <c r="I6">
+        <v>38.96276193911697</v>
+      </c>
+      <c r="J6">
+        <v>39.38623059584897</v>
+      </c>
+      <c r="K6">
+        <v>37.97102115914471</v>
+      </c>
+      <c r="L6">
+        <v>38.51799999999999</v>
+      </c>
+      <c r="M6">
+        <v>37.02</v>
+      </c>
+      <c r="N6">
+        <v>39.37917973543404</v>
+      </c>
+      <c r="O6">
+        <v>38.25859999999999</v>
+      </c>
+      <c r="P6">
+        <v>39.51405543667311</v>
+      </c>
+      <c r="Q6">
+        <v>39.52451705932617</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="2">
+        <v>43891</v>
+      </c>
       <c r="B7">
-        <v>55.79</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>31.66</v>
+      </c>
+      <c r="C7">
+        <v>32.09749714535207</v>
+      </c>
+      <c r="D7">
+        <v>33.2585508356709</v>
+      </c>
+      <c r="E7">
+        <v>38.40511703491211</v>
+      </c>
+      <c r="F7">
+        <v>34.1509</v>
+      </c>
+      <c r="G7">
+        <v>35.05</v>
+      </c>
+      <c r="H7">
+        <v>33.25012966967464</v>
+      </c>
+      <c r="I7">
+        <v>32.54695752427631</v>
+      </c>
+      <c r="J7">
+        <v>32.56901539858274</v>
+      </c>
+      <c r="K7">
+        <v>34.82025828929618</v>
+      </c>
+      <c r="L7">
+        <v>35.662</v>
+      </c>
+      <c r="M7">
+        <v>31.59611111111111</v>
+      </c>
+      <c r="N7">
+        <v>32.85793331074142</v>
+      </c>
+      <c r="O7">
+        <v>34.10710000000003</v>
+      </c>
+      <c r="P7">
+        <v>33.7532100186834</v>
+      </c>
+      <c r="Q7">
+        <v>34.9332160949707</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="2">
+        <v>42491</v>
+      </c>
       <c r="B8">
-        <v>58.28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>23.99</v>
+      </c>
+      <c r="C8">
+        <v>23.8035548786621</v>
+      </c>
+      <c r="D8">
+        <v>22.84983786527532</v>
+      </c>
+      <c r="E8">
+        <v>26.9946403503418</v>
+      </c>
+      <c r="F8">
+        <v>24.37509999999999</v>
+      </c>
+      <c r="G8">
+        <v>24.78</v>
+      </c>
+      <c r="H8">
+        <v>24.22091416629237</v>
+      </c>
+      <c r="I8">
+        <v>23.92767440073216</v>
+      </c>
+      <c r="J8">
+        <v>23.67278757316776</v>
+      </c>
+      <c r="K8">
+        <v>29.29856462878626</v>
+      </c>
+      <c r="L8">
+        <v>28.006</v>
+      </c>
+      <c r="M8">
+        <v>24.0575</v>
+      </c>
+      <c r="N8">
+        <v>23.24000616285033</v>
+      </c>
+      <c r="O8">
+        <v>23.97839999999998</v>
+      </c>
+      <c r="P8">
+        <v>21.93223802738494</v>
+      </c>
+      <c r="Q8">
+        <v>21.31172943115234</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="2">
+        <v>43160</v>
+      </c>
       <c r="B9">
-        <v>64.03</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>33.31</v>
+      </c>
+      <c r="C9">
+        <v>33.07810128451885</v>
+      </c>
+      <c r="D9">
+        <v>32.46366066071653</v>
+      </c>
+      <c r="E9">
+        <v>38.42041778564453</v>
+      </c>
+      <c r="F9">
+        <v>35.33830000000002</v>
+      </c>
+      <c r="G9">
+        <v>34.85</v>
+      </c>
+      <c r="H9">
+        <v>34.98758132118078</v>
+      </c>
+      <c r="I9">
+        <v>33.64933921957726</v>
+      </c>
+      <c r="J9">
+        <v>33.00993782009138</v>
+      </c>
+      <c r="K9">
+        <v>34.71810366498811</v>
+      </c>
+      <c r="L9">
+        <v>35.66199999999999</v>
+      </c>
+      <c r="M9">
+        <v>34.87857142857143</v>
+      </c>
+      <c r="N9">
+        <v>33.7384655044309</v>
+      </c>
+      <c r="O9">
+        <v>34.53850000000001</v>
+      </c>
+      <c r="P9">
+        <v>33.54419965479291</v>
+      </c>
+      <c r="Q9">
+        <v>35.11930465698242</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="2">
+        <v>45108</v>
+      </c>
       <c r="B10">
-        <v>65.95</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>38.75</v>
+      </c>
+      <c r="C10">
+        <v>39.19800733761105</v>
+      </c>
+      <c r="D10">
+        <v>38.31450123632056</v>
+      </c>
+      <c r="E10">
+        <v>47.64791488647461</v>
+      </c>
+      <c r="F10">
+        <v>42.46340660000006</v>
+      </c>
+      <c r="G10">
+        <v>42.79</v>
+      </c>
+      <c r="H10">
+        <v>41.50204679211598</v>
+      </c>
+      <c r="I10">
+        <v>38.67818285919961</v>
+      </c>
+      <c r="J10">
+        <v>40.00055586835357</v>
+      </c>
+      <c r="K10">
+        <v>40.98118962726784</v>
+      </c>
+      <c r="L10">
+        <v>40.974</v>
+      </c>
+      <c r="M10">
+        <v>53.61</v>
+      </c>
+      <c r="N10">
+        <v>38.8994366390788</v>
+      </c>
+      <c r="O10">
+        <v>40.12850000000006</v>
+      </c>
+      <c r="P10">
+        <v>39.4171357290187</v>
+      </c>
+      <c r="Q10">
+        <v>40.09143447875977</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="2">
+        <v>42887</v>
+      </c>
       <c r="B11">
-        <v>67.36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>33.6</v>
+      </c>
+      <c r="C11">
+        <v>33.54041589835951</v>
+      </c>
+      <c r="D11">
+        <v>32.99561786995278</v>
+      </c>
+      <c r="E11">
+        <v>35.93276214599609</v>
+      </c>
+      <c r="F11">
+        <v>32.59580000000003</v>
+      </c>
+      <c r="G11">
+        <v>33.33</v>
+      </c>
+      <c r="H11">
+        <v>33.06321951076482</v>
+      </c>
+      <c r="I11">
+        <v>33.72735029425706</v>
+      </c>
+      <c r="J11">
+        <v>33.78934184161903</v>
+      </c>
+      <c r="K11">
+        <v>33.04542276987803</v>
+      </c>
+      <c r="L11">
+        <v>31.156</v>
+      </c>
+      <c r="M11">
+        <v>31.59611111111111</v>
+      </c>
+      <c r="N11">
+        <v>33.87177761771489</v>
+      </c>
+      <c r="O11">
+        <v>33.15130000000003</v>
+      </c>
+      <c r="P11">
+        <v>33.17800017339813</v>
+      </c>
+      <c r="Q11">
+        <v>33.8099250793457</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="2">
+        <v>41671</v>
+      </c>
       <c r="B12">
-        <v>65.59999999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>41.76</v>
+      </c>
+      <c r="C12">
+        <v>41.45975901544865</v>
+      </c>
+      <c r="D12">
+        <v>41.26767435705597</v>
+      </c>
+      <c r="E12">
+        <v>46.47895812988281</v>
+      </c>
+      <c r="F12">
+        <v>42.73783300000002</v>
+      </c>
+      <c r="G12">
+        <v>41.31</v>
+      </c>
+      <c r="H12">
+        <v>42.426068803269</v>
+      </c>
+      <c r="I12">
+        <v>41.50815888292848</v>
+      </c>
+      <c r="J12">
+        <v>41.39118347968525</v>
+      </c>
+      <c r="K12">
+        <v>40.60302140877589</v>
+      </c>
+      <c r="L12">
+        <v>41.39</v>
+      </c>
+      <c r="M12">
+        <v>43.50706600000001</v>
+      </c>
+      <c r="N12">
+        <v>41.30533827468698</v>
+      </c>
+      <c r="O12">
+        <v>41.08970000000002</v>
+      </c>
+      <c r="P12">
+        <v>40.90225446515088</v>
+      </c>
+      <c r="Q12">
+        <v>40.78181838989258</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="2">
+        <v>44713</v>
+      </c>
       <c r="B13">
-        <v>55.73</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>55.45</v>
+      </c>
+      <c r="C13">
+        <v>55.495975937129</v>
+      </c>
+      <c r="D13">
+        <v>55.317794664133</v>
+      </c>
+      <c r="E13">
+        <v>58.39817810058594</v>
+      </c>
+      <c r="F13">
+        <v>55.16911319999996</v>
+      </c>
+      <c r="G13">
+        <v>50.85</v>
+      </c>
+      <c r="H13">
+        <v>54.36205945437059</v>
+      </c>
+      <c r="I13">
+        <v>55.85936400063832</v>
+      </c>
+      <c r="J13">
+        <v>55.26576821251903</v>
+      </c>
+      <c r="K13">
+        <v>44.86481585139899</v>
+      </c>
+      <c r="L13">
+        <v>57.33800000000001</v>
+      </c>
+      <c r="M13">
+        <v>57.78</v>
+      </c>
+      <c r="N13">
+        <v>55.89375266351966</v>
+      </c>
+      <c r="O13">
+        <v>55.95939999999996</v>
+      </c>
+      <c r="P13">
+        <v>54.82825971228449</v>
+      </c>
+      <c r="Q13">
+        <v>55.14388656616211</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="2">
+        <v>42644</v>
+      </c>
       <c r="B14">
-        <v>50.6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>32.83</v>
+      </c>
+      <c r="C14">
+        <v>32.92338882298212</v>
+      </c>
+      <c r="D14">
+        <v>33.92703197881189</v>
+      </c>
+      <c r="E14">
+        <v>35.59184265136719</v>
+      </c>
+      <c r="F14">
+        <v>30.1221</v>
+      </c>
+      <c r="G14">
+        <v>30.56</v>
+      </c>
+      <c r="H14">
+        <v>31.5912562389356</v>
+      </c>
+      <c r="I14">
+        <v>32.84078522107002</v>
+      </c>
+      <c r="J14">
+        <v>33.65435372698395</v>
+      </c>
+      <c r="K14">
+        <v>32.42221561191045</v>
+      </c>
+      <c r="L14">
+        <v>30.902</v>
+      </c>
+      <c r="M14">
+        <v>36.32</v>
+      </c>
+      <c r="N14">
+        <v>33.34228327835158</v>
+      </c>
+      <c r="O14">
+        <v>31.40379999999998</v>
+      </c>
+      <c r="P14">
+        <v>31.03202975022354</v>
+      </c>
+      <c r="Q14">
+        <v>30.77923202514648</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="2">
+        <v>44501</v>
+      </c>
       <c r="B15">
-        <v>47.75</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>48.65</v>
+      </c>
+      <c r="C15">
+        <v>48.50371702224045</v>
+      </c>
+      <c r="D15">
+        <v>47.98054569906966</v>
+      </c>
+      <c r="E15">
+        <v>49.99087142944336</v>
+      </c>
+      <c r="F15">
+        <v>45.65250000000002</v>
+      </c>
+      <c r="G15">
+        <v>42.67</v>
+      </c>
+      <c r="H15">
+        <v>46.57336673118149</v>
+      </c>
+      <c r="I15">
+        <v>48.29927830656808</v>
+      </c>
+      <c r="J15">
+        <v>47.62802421811882</v>
+      </c>
+      <c r="K15">
+        <v>42.52216023352291</v>
+      </c>
+      <c r="L15">
+        <v>44.15</v>
+      </c>
+      <c r="M15">
+        <v>45.695</v>
+      </c>
+      <c r="N15">
+        <v>46.58549599947654</v>
+      </c>
+      <c r="O15">
+        <v>45.68070660000003</v>
+      </c>
+      <c r="P15">
+        <v>45.20038378289022</v>
+      </c>
+      <c r="Q15">
+        <v>45.29572296142578</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="2">
+        <v>43922</v>
+      </c>
       <c r="B16">
-        <v>47.05</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2">
+        <v>30.01</v>
+      </c>
+      <c r="C16">
+        <v>30.36759092279945</v>
+      </c>
+      <c r="D16">
+        <v>32.06777588951525</v>
+      </c>
+      <c r="E16">
+        <v>36.32554244995117</v>
+      </c>
+      <c r="F16">
+        <v>32.65070000000001</v>
+      </c>
+      <c r="G16">
+        <v>33.53</v>
+      </c>
+      <c r="H16">
+        <v>32.30032499256713</v>
+      </c>
+      <c r="I16">
+        <v>30.42498204519656</v>
+      </c>
+      <c r="J16">
+        <v>30.71713691944693</v>
+      </c>
+      <c r="K16">
+        <v>33.35801997849727</v>
+      </c>
+      <c r="L16">
+        <v>32.72799999999999</v>
+      </c>
+      <c r="M16">
+        <v>31.59611111111111</v>
+      </c>
+      <c r="N16">
+        <v>31.45489905080886</v>
+      </c>
+      <c r="O16">
+        <v>32.0152</v>
+      </c>
+      <c r="P16">
+        <v>31.86595508551839</v>
+      </c>
+      <c r="Q16">
+        <v>32.78062057495117</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17" s="2">
+        <v>42095</v>
+      </c>
       <c r="B17">
-        <v>43.63</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2">
+        <v>30.79</v>
+      </c>
+      <c r="C17">
+        <v>30.58077140291246</v>
+      </c>
+      <c r="D17">
+        <v>29.95327841789885</v>
+      </c>
+      <c r="E17">
+        <v>32.93034362792969</v>
+      </c>
+      <c r="F17">
+        <v>29.96860000000003</v>
+      </c>
+      <c r="G17">
+        <v>29.15</v>
+      </c>
+      <c r="H17">
+        <v>28.88793263290081</v>
+      </c>
+      <c r="I17">
+        <v>29.98861133131788</v>
+      </c>
+      <c r="J17">
+        <v>30.50118682344129</v>
+      </c>
+      <c r="K17">
+        <v>30.23941187539477</v>
+      </c>
+      <c r="L17">
+        <v>29.698</v>
+      </c>
+      <c r="M17">
+        <v>31.59611111111111</v>
+      </c>
+      <c r="N17">
+        <v>29.52776334255877</v>
+      </c>
+      <c r="O17">
+        <v>30.28580000000004</v>
+      </c>
+      <c r="P17">
+        <v>26.82942634211499</v>
+      </c>
+      <c r="Q17">
+        <v>26.89813613891602</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18" s="2">
+        <v>44317</v>
+      </c>
       <c r="B18">
-        <v>38.36</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2">
+        <v>37.49</v>
+      </c>
+      <c r="C18">
+        <v>36.97593187007531</v>
+      </c>
+      <c r="D18">
+        <v>36.47059363934508</v>
+      </c>
+      <c r="E18">
+        <v>40.69594192504883</v>
+      </c>
+      <c r="F18">
+        <v>37.25389999999997</v>
+      </c>
+      <c r="G18">
+        <v>35.21</v>
+      </c>
+      <c r="H18">
+        <v>37.29100621680373</v>
+      </c>
+      <c r="I18">
+        <v>37.13989631452434</v>
+      </c>
+      <c r="J18">
+        <v>36.612840818779</v>
+      </c>
+      <c r="K18">
+        <v>34.93291988487281</v>
+      </c>
+      <c r="L18">
+        <v>33.58200000000001</v>
+      </c>
+      <c r="M18">
+        <v>37.02</v>
+      </c>
+      <c r="N18">
+        <v>36.81289793007875</v>
+      </c>
+      <c r="O18">
+        <v>37.17959999999998</v>
+      </c>
+      <c r="P18">
+        <v>35.37600019173503</v>
+      </c>
+      <c r="Q18">
+        <v>34.970947265625</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19" s="2">
+        <v>41852</v>
+      </c>
       <c r="B19">
-        <v>36.78</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2">
+        <v>36.52</v>
+      </c>
+      <c r="C19">
+        <v>35.59044334451495</v>
+      </c>
+      <c r="D19">
+        <v>37.34513830463477</v>
+      </c>
+      <c r="E19">
+        <v>41.58927917480469</v>
+      </c>
+      <c r="F19">
+        <v>36.70630000000001</v>
+      </c>
+      <c r="G19">
+        <v>38</v>
+      </c>
+      <c r="H19">
+        <v>36.51885491599838</v>
+      </c>
+      <c r="I19">
+        <v>36.1516954535149</v>
+      </c>
+      <c r="J19">
+        <v>36.48203033909689</v>
+      </c>
+      <c r="K19">
+        <v>37.71625643922025</v>
+      </c>
+      <c r="L19">
+        <v>36.768</v>
+      </c>
+      <c r="M19">
+        <v>37.02</v>
+      </c>
+      <c r="N19">
+        <v>37.07974611815399</v>
+      </c>
+      <c r="O19">
+        <v>36.1931</v>
+      </c>
+      <c r="P19">
+        <v>37.32276642692879</v>
+      </c>
+      <c r="Q19">
+        <v>39.00266265869141</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20" s="2">
+        <v>43221</v>
+      </c>
       <c r="B20">
-        <v>37.48</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2">
+        <v>31.17</v>
+      </c>
+      <c r="C20">
+        <v>31.26113766285041</v>
+      </c>
+      <c r="D20">
+        <v>29.71158925764555</v>
+      </c>
+      <c r="E20">
+        <v>35.96568298339844</v>
+      </c>
+      <c r="F20">
+        <v>31.73099999999999</v>
+      </c>
+      <c r="G20">
+        <v>31.25</v>
+      </c>
+      <c r="H20">
+        <v>31.80554985000631</v>
+      </c>
+      <c r="I20">
+        <v>31.05520565426621</v>
+      </c>
+      <c r="J20">
+        <v>31.06990328886788</v>
+      </c>
+      <c r="K20">
+        <v>31.81944798329383</v>
+      </c>
+      <c r="L20">
+        <v>31.524</v>
+      </c>
+      <c r="M20">
+        <v>31.59611111111111</v>
+      </c>
+      <c r="N20">
+        <v>30.8997728605014</v>
+      </c>
+      <c r="O20">
+        <v>31.66769999999999</v>
+      </c>
+      <c r="P20">
+        <v>29.79049052390075</v>
+      </c>
+      <c r="Q20">
+        <v>29.96051025390625</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21" s="2">
+        <v>41883</v>
+      </c>
       <c r="B21">
-        <v>40.27</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2">
+        <v>35.45</v>
+      </c>
+      <c r="C21">
+        <v>35.29193165701212</v>
+      </c>
+      <c r="D21">
+        <v>37.46610080483674</v>
+      </c>
+      <c r="E21">
+        <v>41.26415634155273</v>
+      </c>
+      <c r="F21">
+        <v>36.83110000000001</v>
+      </c>
+      <c r="G21">
+        <v>37.41</v>
+      </c>
+      <c r="H21">
+        <v>36.96764786941711</v>
+      </c>
+      <c r="I21">
+        <v>35.91336479628847</v>
+      </c>
+      <c r="J21">
+        <v>36.29404406085405</v>
+      </c>
+      <c r="K21">
+        <v>37.50393741880619</v>
+      </c>
+      <c r="L21">
+        <v>37.566</v>
+      </c>
+      <c r="M21">
+        <v>37.02</v>
+      </c>
+      <c r="N21">
+        <v>37.9310535239631</v>
+      </c>
+      <c r="O21">
+        <v>37.10100000000002</v>
+      </c>
+      <c r="P21">
+        <v>36.66717079695895</v>
+      </c>
+      <c r="Q21">
+        <v>37.92751693725586</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="A22" s="2">
+        <v>42917</v>
+      </c>
       <c r="B22">
-        <v>44.71</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2">
+        <v>34.96</v>
+      </c>
+      <c r="C22">
+        <v>34.44942572540602</v>
+      </c>
+      <c r="D22">
+        <v>34.51313413727929</v>
+      </c>
+      <c r="E22">
+        <v>39.77096939086914</v>
+      </c>
+      <c r="F22">
+        <v>34.45560000000001</v>
+      </c>
+      <c r="G22">
+        <v>35.41</v>
+      </c>
+      <c r="H22">
+        <v>33.48937564706674</v>
+      </c>
+      <c r="I22">
+        <v>35.23396384508651</v>
+      </c>
+      <c r="J22">
+        <v>34.87144635745717</v>
+      </c>
+      <c r="K22">
+        <v>34.77901198090907</v>
+      </c>
+      <c r="L22">
+        <v>34.242</v>
+      </c>
+      <c r="M22">
+        <v>31.59611111111111</v>
+      </c>
+      <c r="N22">
+        <v>35.72992863315279</v>
+      </c>
+      <c r="O22">
+        <v>34.88789999999999</v>
+      </c>
+      <c r="P22">
+        <v>35.90708580856477</v>
+      </c>
+      <c r="Q22">
+        <v>36.76511383056641</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23" s="2">
+        <v>42339</v>
+      </c>
       <c r="B23">
-        <v>48.73</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2">
+        <v>29.43</v>
+      </c>
+      <c r="C23">
+        <v>29.10937581594393</v>
+      </c>
+      <c r="D23">
+        <v>29.36537882249869</v>
+      </c>
+      <c r="E23">
+        <v>35.45524597167969</v>
+      </c>
+      <c r="F23">
+        <v>30.71530000000001</v>
+      </c>
+      <c r="G23">
+        <v>31.51</v>
+      </c>
+      <c r="H23">
+        <v>29.63178684421945</v>
+      </c>
+      <c r="I23">
+        <v>29.89230686597817</v>
+      </c>
+      <c r="J23">
+        <v>29.28831427564209</v>
+      </c>
+      <c r="K23">
+        <v>32.42833491478054</v>
+      </c>
+      <c r="L23">
+        <v>32.786</v>
+      </c>
+      <c r="M23">
+        <v>27.814</v>
+      </c>
+      <c r="N23">
+        <v>30.10938033978618</v>
+      </c>
+      <c r="O23">
+        <v>30.12640000000002</v>
+      </c>
+      <c r="P23">
+        <v>30.55648836283735</v>
+      </c>
+      <c r="Q23">
+        <v>30.90301513671875</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="A24" s="2">
+        <v>43862</v>
+      </c>
       <c r="B24">
-        <v>49.92</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2">
+        <v>34.86</v>
+      </c>
+      <c r="C24">
+        <v>34.59164667878009</v>
+      </c>
+      <c r="D24">
+        <v>34.93519548883415</v>
+      </c>
+      <c r="E24">
+        <v>39.39068603515625</v>
+      </c>
+      <c r="F24">
+        <v>36.02350000000001</v>
+      </c>
+      <c r="G24">
+        <v>35.7</v>
+      </c>
+      <c r="H24">
+        <v>35.22452822419512</v>
+      </c>
+      <c r="I24">
+        <v>34.29620082187154</v>
+      </c>
+      <c r="J24">
+        <v>34.84592265143046</v>
+      </c>
+      <c r="K24">
+        <v>35.47447886240948</v>
+      </c>
+      <c r="L24">
+        <v>35.19600000000001</v>
+      </c>
+      <c r="M24">
+        <v>37.02</v>
+      </c>
+      <c r="N24">
+        <v>34.18555035700302</v>
+      </c>
+      <c r="O24">
+        <v>35.07260000000004</v>
+      </c>
+      <c r="P24">
+        <v>34.63568243968559</v>
+      </c>
+      <c r="Q24">
+        <v>35.93396377563477</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25" s="2">
+        <v>41548</v>
+      </c>
       <c r="B25">
-        <v>49.08</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2">
+        <v>44.77</v>
+      </c>
+      <c r="C25">
+        <v>44.67954046102641</v>
+      </c>
+      <c r="D25">
+        <v>45.79342322734984</v>
+      </c>
+      <c r="E25">
+        <v>46.08944320678711</v>
+      </c>
+      <c r="F25">
+        <v>42.95290659999998</v>
+      </c>
+      <c r="G25">
+        <v>40.73</v>
+      </c>
+      <c r="H25">
+        <v>44.01693244443198</v>
+      </c>
+      <c r="I25">
+        <v>44.43582568677945</v>
+      </c>
+      <c r="J25">
+        <v>44.60184820562821</v>
+      </c>
+      <c r="K25">
+        <v>40.20229933925835</v>
+      </c>
+      <c r="L25">
+        <v>42.79</v>
+      </c>
+      <c r="M25">
+        <v>45.695</v>
+      </c>
+      <c r="N25">
+        <v>43.86749528848345</v>
+      </c>
+      <c r="O25">
+        <v>43.192</v>
+      </c>
+      <c r="P25">
+        <v>41.86408421817994</v>
+      </c>
+      <c r="Q25">
+        <v>42.34975433349609</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="A26" s="2">
+        <v>43252</v>
+      </c>
       <c r="B26">
-        <v>47.41</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2">
+        <v>31.66</v>
+      </c>
+      <c r="C26">
+        <v>31.81104273870641</v>
+      </c>
+      <c r="D26">
+        <v>30.55438432559172</v>
+      </c>
+      <c r="E26">
+        <v>35.40537261962891</v>
+      </c>
+      <c r="F26">
+        <v>31.4489</v>
+      </c>
+      <c r="G26">
+        <v>31.55</v>
+      </c>
+      <c r="H26">
+        <v>30.79782234591719</v>
+      </c>
+      <c r="I26">
+        <v>31.77431878658135</v>
+      </c>
+      <c r="J26">
+        <v>31.57033757903074</v>
+      </c>
+      <c r="K26">
+        <v>32.0393034870594</v>
+      </c>
+      <c r="L26">
+        <v>32.378</v>
+      </c>
+      <c r="M26">
+        <v>31.59611111111111</v>
+      </c>
+      <c r="N26">
+        <v>31.71498142479268</v>
+      </c>
+      <c r="O26">
+        <v>31.70050000000002</v>
+      </c>
+      <c r="P26">
+        <v>30.86850623170838</v>
+      </c>
+      <c r="Q26">
+        <v>31.12954711914062</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="A27" s="2">
+        <v>42767</v>
+      </c>
       <c r="B27">
-        <v>49.25</v>
+        <v>34.18</v>
+      </c>
+      <c r="C27">
+        <v>34.71331094533149</v>
+      </c>
+      <c r="D27">
+        <v>34.71141618729162</v>
+      </c>
+      <c r="E27">
+        <v>39.94581985473633</v>
+      </c>
+      <c r="F27">
+        <v>35.43189999999999</v>
+      </c>
+      <c r="G27">
+        <v>34.98</v>
+      </c>
+      <c r="H27">
+        <v>34.36725482397109</v>
+      </c>
+      <c r="I27">
+        <v>34.3468692213915</v>
+      </c>
+      <c r="J27">
+        <v>34.54295397806676</v>
+      </c>
+      <c r="K27">
+        <v>34.12836067498441</v>
+      </c>
+      <c r="L27">
+        <v>34.264</v>
+      </c>
+      <c r="M27">
+        <v>38.86333333333333</v>
+      </c>
+      <c r="N27">
+        <v>34.12504171835202</v>
+      </c>
+      <c r="O27">
+        <v>33.8244</v>
+      </c>
+      <c r="P27">
+        <v>34.79100533635921</v>
+      </c>
+      <c r="Q27">
+        <v>34.84766006469727</v>
       </c>
     </row>
   </sheetData>
